--- a/assets/Map.xlsx
+++ b/assets/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95d2f11f17913644/Documents/Études/LP/S1/Algorithmique/230323 PathFinder/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DA4330-0EDE-4C10-B5D5-C7051BA69904}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A55D093-698B-4091-AFAF-3773DFDC6DF4}"/>
+    <workbookView minimized="1" xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{4A55D093-698B-4091-AFAF-3773DFDC6DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,15 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,6 +344,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,6 +368,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,15 +674,15 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="4.77734375" customWidth="1"/>
+    <col min="1" max="21" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -741,88 +745,88 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-      <c r="D2" s="8">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>4</v>
-      </c>
-      <c r="J2" s="8">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8">
-        <v>5</v>
-      </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
-        <v>4</v>
-      </c>
-      <c r="N2" s="8">
-        <v>3</v>
-      </c>
-      <c r="O2" s="8">
-        <v>3</v>
-      </c>
-      <c r="P2" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>3</v>
-      </c>
-      <c r="R2" s="8">
-        <v>2</v>
-      </c>
-      <c r="S2" s="8">
-        <v>2</v>
-      </c>
-      <c r="T2" s="8">
-        <v>2</v>
-      </c>
-      <c r="U2" s="9">
-        <v>2</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>4</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>2</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2</v>
+      </c>
+      <c r="W2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Z2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="4"/>
+      <c r="X2" s="17"/>
+      <c r="Z2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="17"/>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
         <v>4</v>
       </c>
       <c r="D3" s="2">
@@ -837,7 +841,7 @@
       <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <v>3</v>
       </c>
       <c r="I3" s="2">
@@ -873,33 +877,33 @@
       <c r="S3" s="2">
         <v>4</v>
       </c>
-      <c r="T3" s="11">
-        <v>4</v>
-      </c>
-      <c r="U3" s="13">
-        <v>1</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="6" t="s">
+      <c r="T3" s="8">
+        <v>4</v>
+      </c>
+      <c r="U3" s="10">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="2">
@@ -941,7 +945,7 @@
       <c r="O4" s="2">
         <v>4</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="8">
         <v>3</v>
       </c>
       <c r="Q4" s="2">
@@ -956,7 +960,7 @@
       <c r="T4" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="10">
         <v>4</v>
       </c>
       <c r="W4" s="2">
@@ -975,17 +979,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>-1</v>
       </c>
       <c r="E5" s="2">
@@ -994,19 +998,19 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="J5" s="14">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="G5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="11">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="11">
         <v>-1</v>
       </c>
       <c r="L5" s="2">
@@ -1036,11 +1040,11 @@
       <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="10">
         <v>4</v>
       </c>
       <c r="W5" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2">
         <v>12</v>
@@ -1055,11 +1059,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="2">
@@ -1074,7 +1078,7 @@
       <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>-1</v>
       </c>
       <c r="H6" s="2">
@@ -1095,7 +1099,7 @@
       <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="9">
         <v>5</v>
       </c>
       <c r="O6" s="2">
@@ -1116,7 +1120,7 @@
       <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="10">
         <v>4</v>
       </c>
       <c r="W6" s="2">
@@ -1135,11 +1139,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="2">
@@ -1154,13 +1158,13 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>-1</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>1</v>
       </c>
       <c r="J7" s="2">
@@ -1190,13 +1194,13 @@
       <c r="R7" s="2">
         <v>2</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="9">
         <v>4</v>
       </c>
       <c r="T7" s="2">
         <v>1</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="10">
         <v>5</v>
       </c>
       <c r="W7" s="2">
@@ -1215,14 +1219,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="2">
@@ -1234,7 +1238,7 @@
       <c r="F8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="11">
         <v>-1</v>
       </c>
       <c r="H8" s="2">
@@ -1252,7 +1256,7 @@
       <c r="L8" s="2">
         <v>4</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="11">
         <v>-1</v>
       </c>
       <c r="N8" s="2">
@@ -1264,7 +1268,7 @@
       <c r="P8" s="2">
         <v>3</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="11">
         <v>-1</v>
       </c>
       <c r="R8" s="2">
@@ -1276,7 +1280,7 @@
       <c r="T8" s="2">
         <v>5</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="10">
         <v>4</v>
       </c>
       <c r="W8" s="2">
@@ -1295,11 +1299,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
       <c r="C9" s="2">
@@ -1314,7 +1318,7 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="11">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
@@ -1332,7 +1336,7 @@
       <c r="L9" s="2">
         <v>5</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="11">
         <v>-1</v>
       </c>
       <c r="N9" s="2">
@@ -1344,7 +1348,7 @@
       <c r="P9" s="2">
         <v>2</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="11">
         <v>-1</v>
       </c>
       <c r="R9" s="2">
@@ -1356,7 +1360,7 @@
       <c r="T9" s="2">
         <v>2</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="10">
         <v>4</v>
       </c>
       <c r="W9" s="2">
@@ -1375,11 +1379,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>2</v>
       </c>
       <c r="C10" s="2">
@@ -1394,7 +1398,7 @@
       <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>-1</v>
       </c>
       <c r="H10" s="2">
@@ -1406,13 +1410,13 @@
       <c r="J10" s="2">
         <v>4</v>
       </c>
-      <c r="K10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="14">
+      <c r="K10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="11">
         <v>-1</v>
       </c>
       <c r="N10" s="2">
@@ -1424,19 +1428,19 @@
       <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="Q10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="13">
+      <c r="Q10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="10">
         <v>3</v>
       </c>
       <c r="W10" s="2">
@@ -1455,11 +1459,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
       <c r="C11" s="2">
@@ -1474,13 +1478,13 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H11" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="G11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="11">
         <v>-1</v>
       </c>
       <c r="J11" s="2">
@@ -1504,7 +1508,7 @@
       <c r="P11" s="2">
         <v>3</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="11">
         <v>-1</v>
       </c>
       <c r="R11" s="2">
@@ -1516,15 +1520,15 @@
       <c r="T11" s="2">
         <v>3</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
       <c r="C12" s="2">
@@ -1545,7 +1549,7 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="11">
         <v>-1</v>
       </c>
       <c r="J12" s="2">
@@ -1569,7 +1573,7 @@
       <c r="P12" s="2">
         <v>5</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="11">
         <v>-1</v>
       </c>
       <c r="R12" s="2">
@@ -1581,18 +1585,18 @@
       <c r="T12" s="2">
         <v>3</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
-        <v>2</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="2">
@@ -1610,7 +1614,7 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="11">
         <v>-1</v>
       </c>
       <c r="J13" s="2">
@@ -1646,15 +1650,15 @@
       <c r="T13" s="2">
         <v>3</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
       <c r="C14" s="2">
@@ -1669,13 +1673,13 @@
       <c r="F14" s="2">
         <v>5</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <v>-1</v>
       </c>
       <c r="J14" s="2">
@@ -1711,15 +1715,15 @@
       <c r="T14" s="2">
         <v>2</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
       <c r="C15" s="2">
@@ -1740,7 +1744,7 @@
       <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="11">
         <v>-1</v>
       </c>
       <c r="J15" s="2">
@@ -1749,19 +1753,19 @@
       <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="9">
         <v>3</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="14">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="14">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="14">
+      <c r="N15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="11">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="11">
         <v>-1</v>
       </c>
       <c r="Q15" s="2">
@@ -1776,15 +1780,15 @@
       <c r="T15" s="2">
         <v>4</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="7">
         <v>1</v>
       </c>
       <c r="C16" s="2">
@@ -1805,7 +1809,7 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="11">
         <v>-1</v>
       </c>
       <c r="J16" s="2">
@@ -1841,15 +1845,15 @@
       <c r="T16" s="2">
         <v>1</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
       <c r="C17" s="2">
@@ -1861,16 +1865,16 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="14">
-        <v>-1</v>
-      </c>
-      <c r="H17" s="14">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="F17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="11">
         <v>-1</v>
       </c>
       <c r="J17" s="2">
@@ -1906,15 +1910,15 @@
       <c r="T17" s="2">
         <v>4</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>5</v>
       </c>
       <c r="C18" s="2">
@@ -1953,7 +1957,7 @@
       <c r="N18" s="2">
         <v>2</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="8">
         <v>4</v>
       </c>
       <c r="P18" s="2">
@@ -1968,18 +1972,18 @@
       <c r="S18" s="2">
         <v>4</v>
       </c>
-      <c r="T18" s="12">
-        <v>3</v>
-      </c>
-      <c r="U18" s="13">
+      <c r="T18" s="9">
+        <v>3</v>
+      </c>
+      <c r="U18" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>2</v>
       </c>
       <c r="C19" s="2">
@@ -2036,18 +2040,18 @@
       <c r="T19" s="2">
         <v>4</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="10">
-        <v>2</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
         <v>1</v>
       </c>
       <c r="D20" s="2">
@@ -2074,7 +2078,7 @@
       <c r="K20" s="2">
         <v>1</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="15">
         <v>3</v>
       </c>
       <c r="M20" s="2">
@@ -2101,72 +2105,72 @@
       <c r="T20" s="2">
         <v>3</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="15">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16">
-        <v>2</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>5</v>
-      </c>
-      <c r="F21" s="16">
-        <v>2</v>
-      </c>
-      <c r="G21" s="16">
-        <v>3</v>
-      </c>
-      <c r="H21" s="16">
-        <v>4</v>
-      </c>
-      <c r="I21" s="16">
-        <v>3</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
-        <v>2</v>
-      </c>
-      <c r="L21" s="16">
-        <v>3</v>
-      </c>
-      <c r="M21" s="16">
-        <v>1</v>
-      </c>
-      <c r="N21" s="16">
-        <v>2</v>
-      </c>
-      <c r="O21" s="16">
-        <v>3</v>
-      </c>
-      <c r="P21" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>2</v>
-      </c>
-      <c r="R21" s="16">
-        <v>5</v>
-      </c>
-      <c r="S21" s="16">
-        <v>5</v>
-      </c>
-      <c r="T21" s="16">
-        <v>4</v>
-      </c>
-      <c r="U21" s="17">
+      <c r="B21" s="12">
+        <v>2</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>5</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13">
+        <v>2</v>
+      </c>
+      <c r="L21" s="13">
+        <v>3</v>
+      </c>
+      <c r="M21" s="13">
+        <v>1</v>
+      </c>
+      <c r="N21" s="13">
+        <v>2</v>
+      </c>
+      <c r="O21" s="13">
+        <v>3</v>
+      </c>
+      <c r="P21" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>2</v>
+      </c>
+      <c r="R21" s="13">
+        <v>5</v>
+      </c>
+      <c r="S21" s="13">
+        <v>5</v>
+      </c>
+      <c r="T21" s="13">
+        <v>4</v>
+      </c>
+      <c r="U21" s="14">
         <v>1</v>
       </c>
     </row>

--- a/assets/Map.xlsx
+++ b/assets/Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95d2f11f17913644/Documents/Études/LP/S1/Algorithmique/230323 PathFinder/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55DA4330-0EDE-4C10-B5D5-C7051BA69904}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB45CEC5-1D89-40F7-BF34-C6C27FFF5143}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7200" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{4A55D093-698B-4091-AFAF-3773DFDC6DF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A55D093-698B-4091-AFAF-3773DFDC6DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,13 +344,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -368,10 +374,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,15 +676,15 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="21" width="4.7109375" customWidth="1"/>
+    <col min="1" max="21" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1</v>
@@ -745,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -813,13 +815,13 @@
         <v>0</v>
       </c>
       <c r="X2" s="17"/>
-      <c r="Z2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="17"/>
+      <c r="Z2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="20"/>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -899,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -979,7 +981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>

--- a/assets/Map.xlsx
+++ b/assets/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95d2f11f17913644/Documents/Études/LP/S1/Algorithmique/230323 PathFinder/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB45CEC5-1D89-40F7-BF34-C6C27FFF5143}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{FB42E16B-2132-4008-846F-C9DA228450B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{442AB1AF-1D7E-4654-B721-0B80F814BAF1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A55D093-698B-4091-AFAF-3773DFDC6DF4}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
